--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="129">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>['79']</t>
+  </si>
+  <si>
+    <t>['47', '90+2']</t>
   </si>
   <si>
     <t>['39', '47', '68']</t>
@@ -759,7 +762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK37"/>
+  <dimension ref="A1:BK38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1090,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT2">
         <v>1.75</v>
@@ -1385,7 +1388,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1767,7 +1770,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -1958,7 +1961,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2149,7 +2152,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2239,7 +2242,7 @@
         <v>0.33</v>
       </c>
       <c r="AT8">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2340,7 +2343,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2531,7 +2534,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -2722,7 +2725,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3104,7 +3107,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3295,7 +3298,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3382,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT14">
         <v>0.33</v>
@@ -3486,7 +3489,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3677,7 +3680,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -3868,7 +3871,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4250,7 +4253,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4441,7 +4444,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -4632,7 +4635,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -4823,7 +4826,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5014,7 +5017,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5205,7 +5208,7 @@
         <v>94</v>
       </c>
       <c r="P24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5778,7 +5781,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q27">
         <v>11</v>
@@ -6056,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT28">
         <v>0</v>
@@ -6160,7 +6163,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6351,7 +6354,7 @@
         <v>98</v>
       </c>
       <c r="P30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q30">
         <v>13</v>
@@ -6441,7 +6444,7 @@
         <v>2</v>
       </c>
       <c r="AT30">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU30">
         <v>1.8</v>
@@ -6542,7 +6545,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -6924,7 +6927,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7115,7 +7118,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7497,7 +7500,7 @@
         <v>101</v>
       </c>
       <c r="P36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7688,7 +7691,7 @@
         <v>102</v>
       </c>
       <c r="P37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -7830,6 +7833,197 @@
       </c>
       <c r="BK37">
         <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:63">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>4932966</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44996.79166666666</v>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H38" t="s">
+        <v>67</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38" t="s">
+        <v>103</v>
+      </c>
+      <c r="P38" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q38">
+        <v>6</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38">
+        <v>8</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>1.36</v>
+      </c>
+      <c r="AD38">
+        <v>4.63</v>
+      </c>
+      <c r="AE38">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <v>1.78</v>
+      </c>
+      <c r="AK38">
+        <v>1.94</v>
+      </c>
+      <c r="AL38">
+        <v>0</v>
+      </c>
+      <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
+        <v>2.33</v>
+      </c>
+      <c r="AR38">
+        <v>2</v>
+      </c>
+      <c r="AS38">
+        <v>2.5</v>
+      </c>
+      <c r="AT38">
+        <v>1.33</v>
+      </c>
+      <c r="AU38">
+        <v>1.61</v>
+      </c>
+      <c r="AV38">
+        <v>1.07</v>
+      </c>
+      <c r="AW38">
+        <v>2.68</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>0</v>
+      </c>
+      <c r="AZ38">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>0</v>
+      </c>
+      <c r="BB38">
+        <v>0</v>
+      </c>
+      <c r="BC38">
+        <v>0</v>
+      </c>
+      <c r="BD38">
+        <v>0</v>
+      </c>
+      <c r="BE38">
+        <v>0</v>
+      </c>
+      <c r="BF38">
+        <v>7</v>
+      </c>
+      <c r="BG38">
+        <v>4</v>
+      </c>
+      <c r="BH38">
+        <v>10</v>
+      </c>
+      <c r="BI38">
+        <v>1</v>
+      </c>
+      <c r="BJ38">
+        <v>17</v>
+      </c>
+      <c r="BK38">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="136">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -328,6 +328,15 @@
     <t>['47', '90+2']</t>
   </si>
   <si>
+    <t>['55', '90+2']</t>
+  </si>
+  <si>
+    <t>['81', '88', '90+1']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
     <t>['39', '47', '68']</t>
   </si>
   <si>
@@ -401,6 +410,18 @@
   </si>
   <si>
     <t>['84']</t>
+  </si>
+  <si>
+    <t>['18', '23']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['16', '61', '90+10']</t>
   </si>
 </sst>
 </file>
@@ -762,7 +783,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK38"/>
+  <dimension ref="A1:BK43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1388,7 +1409,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1478,7 +1499,7 @@
         <v>0.5</v>
       </c>
       <c r="AT4">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1666,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT5">
         <v>1</v>
@@ -1770,7 +1791,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -1961,7 +1982,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2051,7 +2072,7 @@
         <v>2</v>
       </c>
       <c r="AT7">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2152,7 +2173,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2343,7 +2364,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2430,7 +2451,7 @@
         <v>1</v>
       </c>
       <c r="AS9">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT9">
         <v>1.5</v>
@@ -2534,7 +2555,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -2725,7 +2746,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3107,7 +3128,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3194,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT13">
         <v>1</v>
@@ -3298,7 +3319,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3388,7 +3409,7 @@
         <v>2.5</v>
       </c>
       <c r="AT14">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3489,7 +3510,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3576,10 +3597,10 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT15">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU15">
         <v>0.85</v>
@@ -3680,7 +3701,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -3871,7 +3892,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -3961,7 +3982,7 @@
         <v>0.5</v>
       </c>
       <c r="AT17">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU17">
         <v>0.9</v>
@@ -4253,7 +4274,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4444,7 +4465,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -4635,7 +4656,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -4725,7 +4746,7 @@
         <v>1.5</v>
       </c>
       <c r="AT21">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU21">
         <v>1.16</v>
@@ -4826,7 +4847,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5017,7 +5038,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5208,7 +5229,7 @@
         <v>94</v>
       </c>
       <c r="P24" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5486,10 +5507,10 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT25">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU25">
         <v>1.49</v>
@@ -5781,7 +5802,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q27">
         <v>11</v>
@@ -5868,10 +5889,10 @@
         <v>0.5</v>
       </c>
       <c r="AS27">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT27">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU27">
         <v>1.22</v>
@@ -6163,7 +6184,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6250,10 +6271,10 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT29">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU29">
         <v>1.02</v>
@@ -6354,7 +6375,7 @@
         <v>98</v>
       </c>
       <c r="P30" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q30">
         <v>13</v>
@@ -6545,7 +6566,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -6927,7 +6948,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7118,7 +7139,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7500,7 +7521,7 @@
         <v>101</v>
       </c>
       <c r="P36" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7691,7 +7712,7 @@
         <v>102</v>
       </c>
       <c r="P37" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -7781,7 +7802,7 @@
         <v>0.33</v>
       </c>
       <c r="AT37">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU37">
         <v>1.18</v>
@@ -8023,6 +8044,961 @@
         <v>17</v>
       </c>
       <c r="BK38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:63">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>4932967</v>
+      </c>
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="2">
+        <v>44997.75</v>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+      <c r="G39" t="s">
+        <v>68</v>
+      </c>
+      <c r="H39" t="s">
+        <v>70</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39" t="s">
+        <v>79</v>
+      </c>
+      <c r="P39" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q39">
+        <v>3</v>
+      </c>
+      <c r="R39">
+        <v>7</v>
+      </c>
+      <c r="S39">
+        <v>10</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>4.9</v>
+      </c>
+      <c r="AD39">
+        <v>3.5</v>
+      </c>
+      <c r="AE39">
+        <v>1.62</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <v>1.78</v>
+      </c>
+      <c r="AK39">
+        <v>1.98</v>
+      </c>
+      <c r="AL39">
+        <v>0</v>
+      </c>
+      <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>0</v>
+      </c>
+      <c r="AQ39">
+        <v>1</v>
+      </c>
+      <c r="AR39">
+        <v>0.5</v>
+      </c>
+      <c r="AS39">
+        <v>0.75</v>
+      </c>
+      <c r="AT39">
+        <v>1.33</v>
+      </c>
+      <c r="AU39">
+        <v>1.14</v>
+      </c>
+      <c r="AV39">
+        <v>1.18</v>
+      </c>
+      <c r="AW39">
+        <v>2.32</v>
+      </c>
+      <c r="AX39">
+        <v>0</v>
+      </c>
+      <c r="AY39">
+        <v>0</v>
+      </c>
+      <c r="AZ39">
+        <v>0</v>
+      </c>
+      <c r="BA39">
+        <v>0</v>
+      </c>
+      <c r="BB39">
+        <v>0</v>
+      </c>
+      <c r="BC39">
+        <v>0</v>
+      </c>
+      <c r="BD39">
+        <v>0</v>
+      </c>
+      <c r="BE39">
+        <v>0</v>
+      </c>
+      <c r="BF39">
+        <v>3</v>
+      </c>
+      <c r="BG39">
+        <v>4</v>
+      </c>
+      <c r="BH39">
+        <v>2</v>
+      </c>
+      <c r="BI39">
+        <v>7</v>
+      </c>
+      <c r="BJ39">
+        <v>5</v>
+      </c>
+      <c r="BK39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:63">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>4932963</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="2">
+        <v>44997.85416666666</v>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" t="s">
+        <v>76</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>85</v>
+      </c>
+      <c r="P40" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q40">
+        <v>6</v>
+      </c>
+      <c r="R40">
+        <v>6</v>
+      </c>
+      <c r="S40">
+        <v>12</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>4</v>
+      </c>
+      <c r="AD40">
+        <v>3.1</v>
+      </c>
+      <c r="AE40">
+        <v>1.9</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <v>2.1</v>
+      </c>
+      <c r="AK40">
+        <v>1.68</v>
+      </c>
+      <c r="AL40">
+        <v>0</v>
+      </c>
+      <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>0</v>
+      </c>
+      <c r="AQ40">
+        <v>0</v>
+      </c>
+      <c r="AR40">
+        <v>2.33</v>
+      </c>
+      <c r="AS40">
+        <v>0</v>
+      </c>
+      <c r="AT40">
+        <v>2.5</v>
+      </c>
+      <c r="AU40">
+        <v>1.31</v>
+      </c>
+      <c r="AV40">
+        <v>0.8</v>
+      </c>
+      <c r="AW40">
+        <v>2.11</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AY40">
+        <v>0</v>
+      </c>
+      <c r="AZ40">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40">
+        <v>0</v>
+      </c>
+      <c r="BC40">
+        <v>0</v>
+      </c>
+      <c r="BD40">
+        <v>0</v>
+      </c>
+      <c r="BE40">
+        <v>0</v>
+      </c>
+      <c r="BF40">
+        <v>7</v>
+      </c>
+      <c r="BG40">
+        <v>2</v>
+      </c>
+      <c r="BH40">
+        <v>7</v>
+      </c>
+      <c r="BI40">
+        <v>6</v>
+      </c>
+      <c r="BJ40">
+        <v>14</v>
+      </c>
+      <c r="BK40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:63">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>4932965</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="2">
+        <v>44998.75</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+      <c r="G41" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" t="s">
+        <v>66</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="O41" t="s">
+        <v>104</v>
+      </c>
+      <c r="P41" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q41">
+        <v>3</v>
+      </c>
+      <c r="R41">
+        <v>6</v>
+      </c>
+      <c r="S41">
+        <v>9</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>2.45</v>
+      </c>
+      <c r="AD41">
+        <v>3.25</v>
+      </c>
+      <c r="AE41">
+        <v>2.75</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
+        <v>2.1</v>
+      </c>
+      <c r="AK41">
+        <v>1.7</v>
+      </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>0</v>
+      </c>
+      <c r="AQ41">
+        <v>0.5</v>
+      </c>
+      <c r="AR41">
+        <v>2</v>
+      </c>
+      <c r="AS41">
+        <v>1.33</v>
+      </c>
+      <c r="AT41">
+        <v>1.33</v>
+      </c>
+      <c r="AU41">
+        <v>1.4</v>
+      </c>
+      <c r="AV41">
+        <v>1.12</v>
+      </c>
+      <c r="AW41">
+        <v>2.52</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>0</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
+      </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
+      <c r="BC41">
+        <v>0</v>
+      </c>
+      <c r="BD41">
+        <v>0</v>
+      </c>
+      <c r="BE41">
+        <v>0</v>
+      </c>
+      <c r="BF41">
+        <v>5</v>
+      </c>
+      <c r="BG41">
+        <v>5</v>
+      </c>
+      <c r="BH41">
+        <v>7</v>
+      </c>
+      <c r="BI41">
+        <v>3</v>
+      </c>
+      <c r="BJ41">
+        <v>12</v>
+      </c>
+      <c r="BK41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:63">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>4932962</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="2">
+        <v>44998.85416666666</v>
+      </c>
+      <c r="F42">
+        <v>7</v>
+      </c>
+      <c r="G42" t="s">
+        <v>69</v>
+      </c>
+      <c r="H42" t="s">
+        <v>74</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>3</v>
+      </c>
+      <c r="M42">
+        <v>3</v>
+      </c>
+      <c r="N42">
+        <v>6</v>
+      </c>
+      <c r="O42" t="s">
+        <v>105</v>
+      </c>
+      <c r="P42" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q42">
+        <v>3</v>
+      </c>
+      <c r="R42">
+        <v>3</v>
+      </c>
+      <c r="S42">
+        <v>6</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>1.47</v>
+      </c>
+      <c r="AD42">
+        <v>4</v>
+      </c>
+      <c r="AE42">
+        <v>6.5</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
+        <v>2</v>
+      </c>
+      <c r="AK42">
+        <v>1.75</v>
+      </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
+      <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>0</v>
+      </c>
+      <c r="AQ42">
+        <v>1</v>
+      </c>
+      <c r="AR42">
+        <v>0.33</v>
+      </c>
+      <c r="AS42">
+        <v>1</v>
+      </c>
+      <c r="AT42">
+        <v>0.5</v>
+      </c>
+      <c r="AU42">
+        <v>1.51</v>
+      </c>
+      <c r="AV42">
+        <v>0.99</v>
+      </c>
+      <c r="AW42">
+        <v>2.5</v>
+      </c>
+      <c r="AX42">
+        <v>0</v>
+      </c>
+      <c r="AY42">
+        <v>0</v>
+      </c>
+      <c r="AZ42">
+        <v>0</v>
+      </c>
+      <c r="BA42">
+        <v>0</v>
+      </c>
+      <c r="BB42">
+        <v>0</v>
+      </c>
+      <c r="BC42">
+        <v>0</v>
+      </c>
+      <c r="BD42">
+        <v>0</v>
+      </c>
+      <c r="BE42">
+        <v>0</v>
+      </c>
+      <c r="BF42">
+        <v>0</v>
+      </c>
+      <c r="BG42">
+        <v>4</v>
+      </c>
+      <c r="BH42">
+        <v>6</v>
+      </c>
+      <c r="BI42">
+        <v>3</v>
+      </c>
+      <c r="BJ42">
+        <v>6</v>
+      </c>
+      <c r="BK42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:63">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>4932964</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="2">
+        <v>44999.79166666666</v>
+      </c>
+      <c r="F43">
+        <v>7</v>
+      </c>
+      <c r="G43" t="s">
+        <v>72</v>
+      </c>
+      <c r="H43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43" t="s">
+        <v>106</v>
+      </c>
+      <c r="P43" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q43">
+        <v>5</v>
+      </c>
+      <c r="R43">
+        <v>2</v>
+      </c>
+      <c r="S43">
+        <v>7</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>1.44</v>
+      </c>
+      <c r="AD43">
+        <v>3.7</v>
+      </c>
+      <c r="AE43">
+        <v>6.9</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
+        <v>1.86</v>
+      </c>
+      <c r="AK43">
+        <v>1.88</v>
+      </c>
+      <c r="AL43">
+        <v>0</v>
+      </c>
+      <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43">
+        <v>0</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>0</v>
+      </c>
+      <c r="AQ43">
+        <v>2</v>
+      </c>
+      <c r="AR43">
+        <v>0</v>
+      </c>
+      <c r="AS43">
+        <v>2.33</v>
+      </c>
+      <c r="AT43">
+        <v>0</v>
+      </c>
+      <c r="AU43">
+        <v>1.73</v>
+      </c>
+      <c r="AV43">
+        <v>1.01</v>
+      </c>
+      <c r="AW43">
+        <v>2.74</v>
+      </c>
+      <c r="AX43">
+        <v>0</v>
+      </c>
+      <c r="AY43">
+        <v>0</v>
+      </c>
+      <c r="AZ43">
+        <v>0</v>
+      </c>
+      <c r="BA43">
+        <v>0</v>
+      </c>
+      <c r="BB43">
+        <v>0</v>
+      </c>
+      <c r="BC43">
+        <v>0</v>
+      </c>
+      <c r="BD43">
+        <v>0</v>
+      </c>
+      <c r="BE43">
+        <v>0</v>
+      </c>
+      <c r="BF43">
+        <v>3</v>
+      </c>
+      <c r="BG43">
+        <v>2</v>
+      </c>
+      <c r="BH43">
+        <v>4</v>
+      </c>
+      <c r="BI43">
+        <v>3</v>
+      </c>
+      <c r="BJ43">
+        <v>7</v>
+      </c>
+      <c r="BK43">
         <v>5</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK43"/>
+  <dimension ref="A1:BK44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT4" t="n">
         <v>2.5</v>
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>2.33</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT17" t="n">
         <v>1.33</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT20" t="n">
         <v>2.33</v>
@@ -5369,7 +5369,7 @@
         <v>1.67</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU24" t="n">
         <v>1.41</v>
@@ -6790,7 +6790,7 @@
         <v>0.33</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU31" t="n">
         <v>1.34</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT32" t="n">
         <v>1</v>
@@ -9277,6 +9277,209 @@
         <v>8</v>
       </c>
       <c r="BK43" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>4932970</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45003.75</v>
+      </c>
+      <c r="F44" t="n">
+        <v>8</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Guaireña</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>6</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2</v>
+      </c>
+      <c r="S44" t="n">
+        <v>8</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK44" t="n">
         <v>11</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="143">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -343,6 +343,12 @@
     <t>['10']</t>
   </si>
   <si>
+    <t>['18', '34']</t>
+  </si>
+  <si>
+    <t>['34', '53']</t>
+  </si>
+  <si>
     <t>['39', '47', '68']</t>
   </si>
   <si>
@@ -434,6 +440,9 @@
   </si>
   <si>
     <t>['25']</t>
+  </si>
+  <si>
+    <t>['39', '61', '69']</t>
   </si>
 </sst>
 </file>
@@ -795,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK47"/>
+  <dimension ref="A1:BK49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1421,7 +1430,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1699,10 +1708,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1803,7 +1812,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -1994,7 +2003,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2185,7 +2194,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2272,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT8">
         <v>1.33</v>
@@ -2376,7 +2385,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2567,7 +2576,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -2657,7 +2666,7 @@
         <v>1.4</v>
       </c>
       <c r="AT10">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU10">
         <v>1.03</v>
@@ -2758,7 +2767,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3140,7 +3149,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3230,7 +3239,7 @@
         <v>1.33</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3331,7 +3340,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3522,7 +3531,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3609,7 +3618,7 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT15">
         <v>2.5</v>
@@ -3713,7 +3722,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -3904,7 +3913,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4286,7 +4295,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4477,7 +4486,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -4567,7 +4576,7 @@
         <v>0.4</v>
       </c>
       <c r="AT20">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU20">
         <v>0.8</v>
@@ -4668,7 +4677,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -4859,7 +4868,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5050,7 +5059,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5137,7 +5146,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT23">
         <v>1</v>
@@ -5241,7 +5250,7 @@
         <v>94</v>
       </c>
       <c r="P24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5713,7 +5722,7 @@
         <v>1</v>
       </c>
       <c r="AT26">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU26">
         <v>1.32</v>
@@ -5814,7 +5823,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q27">
         <v>11</v>
@@ -6196,7 +6205,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6283,7 +6292,7 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT29">
         <v>1.33</v>
@@ -6387,7 +6396,7 @@
         <v>98</v>
       </c>
       <c r="P30" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q30">
         <v>13</v>
@@ -6578,7 +6587,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -6665,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT31">
         <v>1.8</v>
@@ -6960,7 +6969,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7151,7 +7160,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7241,7 +7250,7 @@
         <v>2.2</v>
       </c>
       <c r="AT34">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU34">
         <v>1.92</v>
@@ -7432,7 +7441,7 @@
         <v>1.67</v>
       </c>
       <c r="AT35">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU35">
         <v>1.35</v>
@@ -7533,7 +7542,7 @@
         <v>101</v>
       </c>
       <c r="P36" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7724,7 +7733,7 @@
         <v>102</v>
       </c>
       <c r="P37" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8106,7 +8115,7 @@
         <v>79</v>
       </c>
       <c r="P39" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8193,7 +8202,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT39">
         <v>1.33</v>
@@ -8297,7 +8306,7 @@
         <v>85</v>
       </c>
       <c r="P40" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8488,7 +8497,7 @@
         <v>104</v>
       </c>
       <c r="P41" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -8679,7 +8688,7 @@
         <v>105</v>
       </c>
       <c r="P42" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9061,7 +9070,7 @@
         <v>85</v>
       </c>
       <c r="P44" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9252,7 +9261,7 @@
         <v>85</v>
       </c>
       <c r="P45" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9443,7 +9452,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9634,16 +9643,16 @@
         <v>108</v>
       </c>
       <c r="P47" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R47">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S47">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="T47">
         <v>0</v>
@@ -9760,22 +9769,404 @@
         <v>0</v>
       </c>
       <c r="BF47">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BG47">
+        <v>7</v>
+      </c>
+      <c r="BH47">
+        <v>9</v>
+      </c>
+      <c r="BI47">
+        <v>8</v>
+      </c>
+      <c r="BJ47">
+        <v>15</v>
+      </c>
+      <c r="BK47">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:63">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>4932968</v>
+      </c>
+      <c r="C48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45005.75</v>
+      </c>
+      <c r="F48">
+        <v>8</v>
+      </c>
+      <c r="G48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H48" t="s">
+        <v>69</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>3</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="N48">
+        <v>5</v>
+      </c>
+      <c r="O48" t="s">
+        <v>109</v>
+      </c>
+      <c r="P48" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q48">
+        <v>2</v>
+      </c>
+      <c r="R48">
+        <v>7</v>
+      </c>
+      <c r="S48">
+        <v>9</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>4.05</v>
+      </c>
+      <c r="AD48">
+        <v>3.55</v>
+      </c>
+      <c r="AE48">
+        <v>1.75</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
+        <v>1.95</v>
+      </c>
+      <c r="AK48">
+        <v>1.91</v>
+      </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>0</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>0</v>
+      </c>
+      <c r="AQ48">
+        <v>0.75</v>
+      </c>
+      <c r="AR48">
+        <v>2.33</v>
+      </c>
+      <c r="AS48">
+        <v>0.6</v>
+      </c>
+      <c r="AT48">
+        <v>2.5</v>
+      </c>
+      <c r="AU48">
+        <v>1.06</v>
+      </c>
+      <c r="AV48">
+        <v>1.14</v>
+      </c>
+      <c r="AW48">
+        <v>2.2</v>
+      </c>
+      <c r="AX48">
+        <v>0</v>
+      </c>
+      <c r="AY48">
+        <v>0</v>
+      </c>
+      <c r="AZ48">
+        <v>0</v>
+      </c>
+      <c r="BA48">
+        <v>0</v>
+      </c>
+      <c r="BB48">
+        <v>0</v>
+      </c>
+      <c r="BC48">
+        <v>0</v>
+      </c>
+      <c r="BD48">
+        <v>0</v>
+      </c>
+      <c r="BE48">
+        <v>0</v>
+      </c>
+      <c r="BF48">
+        <v>4</v>
+      </c>
+      <c r="BG48">
+        <v>8</v>
+      </c>
+      <c r="BH48">
+        <v>3</v>
+      </c>
+      <c r="BI48">
+        <v>7</v>
+      </c>
+      <c r="BJ48">
+        <v>7</v>
+      </c>
+      <c r="BK48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:63">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>4932972</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45005.85416666666</v>
+      </c>
+      <c r="F49">
+        <v>8</v>
+      </c>
+      <c r="G49" t="s">
+        <v>71</v>
+      </c>
+      <c r="H49" t="s">
+        <v>73</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49" t="s">
+        <v>110</v>
+      </c>
+      <c r="P49" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q49">
+        <v>2</v>
+      </c>
+      <c r="R49">
+        <v>3</v>
+      </c>
+      <c r="S49">
+        <v>5</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>2.2</v>
+      </c>
+      <c r="AD49">
+        <v>3.35</v>
+      </c>
+      <c r="AE49">
+        <v>2.89</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>1.92</v>
+      </c>
+      <c r="AK49">
+        <v>1.88</v>
+      </c>
+      <c r="AL49">
+        <v>0</v>
+      </c>
+      <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>0</v>
+      </c>
+      <c r="AQ49">
+        <v>0.33</v>
+      </c>
+      <c r="AR49">
+        <v>1</v>
+      </c>
+      <c r="AS49">
+        <v>1</v>
+      </c>
+      <c r="AT49">
+        <v>0.8</v>
+      </c>
+      <c r="AU49">
+        <v>1.44</v>
+      </c>
+      <c r="AV49">
+        <v>1.3</v>
+      </c>
+      <c r="AW49">
+        <v>2.74</v>
+      </c>
+      <c r="AX49">
+        <v>0</v>
+      </c>
+      <c r="AY49">
+        <v>0</v>
+      </c>
+      <c r="AZ49">
+        <v>0</v>
+      </c>
+      <c r="BA49">
+        <v>0</v>
+      </c>
+      <c r="BB49">
+        <v>0</v>
+      </c>
+      <c r="BC49">
+        <v>0</v>
+      </c>
+      <c r="BD49">
+        <v>0</v>
+      </c>
+      <c r="BE49">
+        <v>0</v>
+      </c>
+      <c r="BF49">
+        <v>0</v>
+      </c>
+      <c r="BG49">
+        <v>0</v>
+      </c>
+      <c r="BH49">
         <v>6</v>
       </c>
-      <c r="BH47">
+      <c r="BI49">
         <v>5</v>
       </c>
-      <c r="BI47">
+      <c r="BJ49">
+        <v>6</v>
+      </c>
+      <c r="BK49">
         <v>5</v>
-      </c>
-      <c r="BJ47">
-        <v>5</v>
-      </c>
-      <c r="BK47">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -10031,10 +10031,10 @@
         <v>2</v>
       </c>
       <c r="R49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T49">
         <v>0</v>
@@ -10151,22 +10151,22 @@
         <v>0</v>
       </c>
       <c r="BF49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH49">
         <v>6</v>
       </c>
       <c r="BI49">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BJ49">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BK49">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="149">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -349,6 +349,15 @@
     <t>['34', '53']</t>
   </si>
   <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['17', '71']</t>
+  </si>
+  <si>
+    <t>['29', '45+1', '55', '68']</t>
+  </si>
+  <si>
     <t>['39', '47', '68']</t>
   </si>
   <si>
@@ -443,6 +452,15 @@
   </si>
   <si>
     <t>['39', '61', '69']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['9', '75']</t>
+  </si>
+  <si>
+    <t>['48']</t>
   </si>
 </sst>
 </file>
@@ -804,7 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK49"/>
+  <dimension ref="A1:BK52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1430,7 +1448,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1520,7 +1538,7 @@
         <v>0.4</v>
       </c>
       <c r="AT4">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1812,7 +1830,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -1899,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT6">
         <v>1.8</v>
@@ -2003,7 +2021,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2194,7 +2212,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2284,7 +2302,7 @@
         <v>1</v>
       </c>
       <c r="AT8">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2385,7 +2403,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2472,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="AS9">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT9">
         <v>1.8</v>
@@ -2576,7 +2594,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -2767,7 +2785,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3149,7 +3167,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3236,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT13">
         <v>0.8</v>
@@ -3340,7 +3358,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3531,7 +3549,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3621,7 +3639,7 @@
         <v>0.6</v>
       </c>
       <c r="AT15">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU15">
         <v>0.85</v>
@@ -3722,7 +3740,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -3809,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT16">
         <v>1.6</v>
@@ -3913,7 +3931,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4295,7 +4313,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4486,7 +4504,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -4677,7 +4695,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -4767,7 +4785,7 @@
         <v>1.4</v>
       </c>
       <c r="AT21">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU21">
         <v>1.16</v>
@@ -4868,7 +4886,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5059,7 +5077,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5250,7 +5268,7 @@
         <v>94</v>
       </c>
       <c r="P24" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5528,10 +5546,10 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT25">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU25">
         <v>1.49</v>
@@ -5719,7 +5737,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT26">
         <v>0.8</v>
@@ -5823,7 +5841,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q27">
         <v>11</v>
@@ -5910,7 +5928,7 @@
         <v>0.5</v>
       </c>
       <c r="AS27">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT27">
         <v>1</v>
@@ -6205,7 +6223,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6396,7 +6414,7 @@
         <v>98</v>
       </c>
       <c r="P30" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q30">
         <v>13</v>
@@ -6486,7 +6504,7 @@
         <v>2.2</v>
       </c>
       <c r="AT30">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU30">
         <v>1.8</v>
@@ -6587,7 +6605,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -6969,7 +6987,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7160,7 +7178,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7542,7 +7560,7 @@
         <v>101</v>
       </c>
       <c r="P36" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7733,7 +7751,7 @@
         <v>102</v>
       </c>
       <c r="P37" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -7823,7 +7841,7 @@
         <v>0.25</v>
       </c>
       <c r="AT37">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU37">
         <v>1.18</v>
@@ -8014,7 +8032,7 @@
         <v>2.5</v>
       </c>
       <c r="AT38">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU38">
         <v>1.61</v>
@@ -8115,7 +8133,7 @@
         <v>79</v>
       </c>
       <c r="P39" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8205,7 +8223,7 @@
         <v>0.6</v>
       </c>
       <c r="AT39">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU39">
         <v>1.14</v>
@@ -8306,7 +8324,7 @@
         <v>85</v>
       </c>
       <c r="P40" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8396,7 +8414,7 @@
         <v>0</v>
       </c>
       <c r="AT40">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU40">
         <v>1.31</v>
@@ -8497,7 +8515,7 @@
         <v>104</v>
       </c>
       <c r="P41" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -8584,7 +8602,7 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT41">
         <v>1.33</v>
@@ -8688,7 +8706,7 @@
         <v>105</v>
       </c>
       <c r="P42" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -8775,7 +8793,7 @@
         <v>0.33</v>
       </c>
       <c r="AS42">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT42">
         <v>1</v>
@@ -8966,7 +8984,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT43">
         <v>0</v>
@@ -9070,7 +9088,7 @@
         <v>85</v>
       </c>
       <c r="P44" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9261,7 +9279,7 @@
         <v>85</v>
       </c>
       <c r="P45" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9452,7 +9470,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9643,7 +9661,7 @@
         <v>108</v>
       </c>
       <c r="P47" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -9834,7 +9852,7 @@
         <v>109</v>
       </c>
       <c r="P48" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10167,6 +10185,579 @@
       </c>
       <c r="BK49">
         <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:63">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>4932977</v>
+      </c>
+      <c r="C50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45009.79166666666</v>
+      </c>
+      <c r="F50">
+        <v>9</v>
+      </c>
+      <c r="G50" t="s">
+        <v>72</v>
+      </c>
+      <c r="H50" t="s">
+        <v>67</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50" t="s">
+        <v>111</v>
+      </c>
+      <c r="P50" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q50">
+        <v>6</v>
+      </c>
+      <c r="R50">
+        <v>6</v>
+      </c>
+      <c r="S50">
+        <v>12</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <v>1.53</v>
+      </c>
+      <c r="AD50">
+        <v>3.7</v>
+      </c>
+      <c r="AE50">
+        <v>6.5</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <v>2.2</v>
+      </c>
+      <c r="AK50">
+        <v>1.62</v>
+      </c>
+      <c r="AL50">
+        <v>0</v>
+      </c>
+      <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <v>0</v>
+      </c>
+      <c r="AQ50">
+        <v>2.33</v>
+      </c>
+      <c r="AR50">
+        <v>1.33</v>
+      </c>
+      <c r="AS50">
+        <v>2</v>
+      </c>
+      <c r="AT50">
+        <v>1.25</v>
+      </c>
+      <c r="AU50">
+        <v>1.54</v>
+      </c>
+      <c r="AV50">
+        <v>1.03</v>
+      </c>
+      <c r="AW50">
+        <v>2.57</v>
+      </c>
+      <c r="AX50">
+        <v>0</v>
+      </c>
+      <c r="AY50">
+        <v>0</v>
+      </c>
+      <c r="AZ50">
+        <v>0</v>
+      </c>
+      <c r="BA50">
+        <v>0</v>
+      </c>
+      <c r="BB50">
+        <v>0</v>
+      </c>
+      <c r="BC50">
+        <v>0</v>
+      </c>
+      <c r="BD50">
+        <v>0</v>
+      </c>
+      <c r="BE50">
+        <v>0</v>
+      </c>
+      <c r="BF50">
+        <v>7</v>
+      </c>
+      <c r="BG50">
+        <v>2</v>
+      </c>
+      <c r="BH50">
+        <v>6</v>
+      </c>
+      <c r="BI50">
+        <v>7</v>
+      </c>
+      <c r="BJ50">
+        <v>13</v>
+      </c>
+      <c r="BK50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:63">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>4932978</v>
+      </c>
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45010.75</v>
+      </c>
+      <c r="F51">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>75</v>
+      </c>
+      <c r="H51" t="s">
+        <v>70</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>4</v>
+      </c>
+      <c r="O51" t="s">
+        <v>112</v>
+      </c>
+      <c r="P51" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q51">
+        <v>3</v>
+      </c>
+      <c r="R51">
+        <v>9</v>
+      </c>
+      <c r="S51">
+        <v>12</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <v>4</v>
+      </c>
+      <c r="AD51">
+        <v>3.65</v>
+      </c>
+      <c r="AE51">
+        <v>1.68</v>
+      </c>
+      <c r="AF51">
+        <v>0</v>
+      </c>
+      <c r="AG51">
+        <v>0</v>
+      </c>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
+      </c>
+      <c r="AJ51">
+        <v>1.81</v>
+      </c>
+      <c r="AK51">
+        <v>1.99</v>
+      </c>
+      <c r="AL51">
+        <v>0</v>
+      </c>
+      <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <v>0</v>
+      </c>
+      <c r="AO51">
+        <v>0</v>
+      </c>
+      <c r="AP51">
+        <v>0</v>
+      </c>
+      <c r="AQ51">
+        <v>1.33</v>
+      </c>
+      <c r="AR51">
+        <v>1.33</v>
+      </c>
+      <c r="AS51">
+        <v>1.25</v>
+      </c>
+      <c r="AT51">
+        <v>1.25</v>
+      </c>
+      <c r="AU51">
+        <v>1.46</v>
+      </c>
+      <c r="AV51">
+        <v>1.24</v>
+      </c>
+      <c r="AW51">
+        <v>2.7</v>
+      </c>
+      <c r="AX51">
+        <v>0</v>
+      </c>
+      <c r="AY51">
+        <v>0</v>
+      </c>
+      <c r="AZ51">
+        <v>0</v>
+      </c>
+      <c r="BA51">
+        <v>0</v>
+      </c>
+      <c r="BB51">
+        <v>0</v>
+      </c>
+      <c r="BC51">
+        <v>0</v>
+      </c>
+      <c r="BD51">
+        <v>0</v>
+      </c>
+      <c r="BE51">
+        <v>0</v>
+      </c>
+      <c r="BF51">
+        <v>4</v>
+      </c>
+      <c r="BG51">
+        <v>3</v>
+      </c>
+      <c r="BH51">
+        <v>3</v>
+      </c>
+      <c r="BI51">
+        <v>10</v>
+      </c>
+      <c r="BJ51">
+        <v>7</v>
+      </c>
+      <c r="BK51">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:63">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>4932974</v>
+      </c>
+      <c r="C52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45010.85416666666</v>
+      </c>
+      <c r="F52">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>69</v>
+      </c>
+      <c r="H52" t="s">
+        <v>76</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>4</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>5</v>
+      </c>
+      <c r="O52" t="s">
+        <v>113</v>
+      </c>
+      <c r="P52" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q52">
+        <v>3</v>
+      </c>
+      <c r="R52">
+        <v>5</v>
+      </c>
+      <c r="S52">
+        <v>8</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <v>1.73</v>
+      </c>
+      <c r="AD52">
+        <v>3.3</v>
+      </c>
+      <c r="AE52">
+        <v>4.5</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
+        <v>2.15</v>
+      </c>
+      <c r="AK52">
+        <v>1.6</v>
+      </c>
+      <c r="AL52">
+        <v>0</v>
+      </c>
+      <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>0</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>0</v>
+      </c>
+      <c r="AQ52">
+        <v>1</v>
+      </c>
+      <c r="AR52">
+        <v>2.5</v>
+      </c>
+      <c r="AS52">
+        <v>1.4</v>
+      </c>
+      <c r="AT52">
+        <v>2</v>
+      </c>
+      <c r="AU52">
+        <v>1.35</v>
+      </c>
+      <c r="AV52">
+        <v>0.89</v>
+      </c>
+      <c r="AW52">
+        <v>2.24</v>
+      </c>
+      <c r="AX52">
+        <v>0</v>
+      </c>
+      <c r="AY52">
+        <v>0</v>
+      </c>
+      <c r="AZ52">
+        <v>0</v>
+      </c>
+      <c r="BA52">
+        <v>0</v>
+      </c>
+      <c r="BB52">
+        <v>0</v>
+      </c>
+      <c r="BC52">
+        <v>0</v>
+      </c>
+      <c r="BD52">
+        <v>0</v>
+      </c>
+      <c r="BE52">
+        <v>0</v>
+      </c>
+      <c r="BF52">
+        <v>3</v>
+      </c>
+      <c r="BG52">
+        <v>2</v>
+      </c>
+      <c r="BH52">
+        <v>7</v>
+      </c>
+      <c r="BI52">
+        <v>3</v>
+      </c>
+      <c r="BJ52">
+        <v>10</v>
+      </c>
+      <c r="BK52">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="151">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -356,6 +356,12 @@
   </si>
   <si>
     <t>['29', '45+1', '55', '68']</t>
+  </si>
+  <si>
+    <t>['8', '17']</t>
+  </si>
+  <si>
+    <t>['39']</t>
   </si>
   <si>
     <t>['39', '47', '68']</t>
@@ -822,7 +828,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK52"/>
+  <dimension ref="A1:BK54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1448,7 +1454,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1830,7 +1836,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2021,7 +2027,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2212,7 +2218,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2403,7 +2409,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2594,7 +2600,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -2785,7 +2791,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -2872,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AT11">
         <v>2.25</v>
@@ -3063,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT12">
         <v>1</v>
@@ -3167,7 +3173,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3358,7 +3364,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3549,7 +3555,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3740,7 +3746,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -3931,7 +3937,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4021,7 +4027,7 @@
         <v>0.4</v>
       </c>
       <c r="AT17">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU17">
         <v>0.9</v>
@@ -4313,7 +4319,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4400,7 +4406,7 @@
         <v>0.5</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AT19">
         <v>1.6</v>
@@ -4504,7 +4510,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -4695,7 +4701,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -4886,7 +4892,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5077,7 +5083,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5268,7 +5274,7 @@
         <v>94</v>
       </c>
       <c r="P24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5355,7 +5361,7 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT24">
         <v>1.8</v>
@@ -5841,7 +5847,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q27">
         <v>11</v>
@@ -6223,7 +6229,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6313,7 +6319,7 @@
         <v>0.6</v>
       </c>
       <c r="AT29">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU29">
         <v>1.02</v>
@@ -6414,7 +6420,7 @@
         <v>98</v>
       </c>
       <c r="P30" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q30">
         <v>13</v>
@@ -6605,7 +6611,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -6987,7 +6993,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7178,7 +7184,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7456,7 +7462,7 @@
         <v>1.33</v>
       </c>
       <c r="AS35">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT35">
         <v>0.8</v>
@@ -7560,7 +7566,7 @@
         <v>101</v>
       </c>
       <c r="P36" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7751,7 +7757,7 @@
         <v>102</v>
       </c>
       <c r="P37" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8133,7 +8139,7 @@
         <v>79</v>
       </c>
       <c r="P39" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8324,7 +8330,7 @@
         <v>85</v>
       </c>
       <c r="P40" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8411,7 +8417,7 @@
         <v>2.33</v>
       </c>
       <c r="AS40">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AT40">
         <v>2</v>
@@ -8515,7 +8521,7 @@
         <v>104</v>
       </c>
       <c r="P41" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -8605,7 +8611,7 @@
         <v>1.25</v>
       </c>
       <c r="AT41">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU41">
         <v>1.4</v>
@@ -8706,7 +8712,7 @@
         <v>105</v>
       </c>
       <c r="P42" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9088,7 +9094,7 @@
         <v>85</v>
       </c>
       <c r="P44" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9279,7 +9285,7 @@
         <v>85</v>
       </c>
       <c r="P45" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9470,7 +9476,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9661,7 +9667,7 @@
         <v>108</v>
       </c>
       <c r="P47" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -9852,7 +9858,7 @@
         <v>109</v>
       </c>
       <c r="P48" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10234,7 +10240,7 @@
         <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10425,7 +10431,7 @@
         <v>112</v>
       </c>
       <c r="P51" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -10616,7 +10622,7 @@
         <v>113</v>
       </c>
       <c r="P52" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -10758,6 +10764,388 @@
       </c>
       <c r="BK52">
         <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:63">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>4932975</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45011.75</v>
+      </c>
+      <c r="F53">
+        <v>9</v>
+      </c>
+      <c r="G53" t="s">
+        <v>74</v>
+      </c>
+      <c r="H53" t="s">
+        <v>71</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53" t="s">
+        <v>114</v>
+      </c>
+      <c r="P53" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q53">
+        <v>4</v>
+      </c>
+      <c r="R53">
+        <v>4</v>
+      </c>
+      <c r="S53">
+        <v>8</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <v>1.9</v>
+      </c>
+      <c r="AD53">
+        <v>3.35</v>
+      </c>
+      <c r="AE53">
+        <v>3.45</v>
+      </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <v>0</v>
+      </c>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
+        <v>2.1</v>
+      </c>
+      <c r="AK53">
+        <v>1.65</v>
+      </c>
+      <c r="AL53">
+        <v>0</v>
+      </c>
+      <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>0</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+      <c r="AP53">
+        <v>0</v>
+      </c>
+      <c r="AQ53">
+        <v>1.67</v>
+      </c>
+      <c r="AR53">
+        <v>0</v>
+      </c>
+      <c r="AS53">
+        <v>2</v>
+      </c>
+      <c r="AT53">
+        <v>0</v>
+      </c>
+      <c r="AU53">
+        <v>1.25</v>
+      </c>
+      <c r="AV53">
+        <v>1.15</v>
+      </c>
+      <c r="AW53">
+        <v>2.4</v>
+      </c>
+      <c r="AX53">
+        <v>0</v>
+      </c>
+      <c r="AY53">
+        <v>0</v>
+      </c>
+      <c r="AZ53">
+        <v>0</v>
+      </c>
+      <c r="BA53">
+        <v>0</v>
+      </c>
+      <c r="BB53">
+        <v>0</v>
+      </c>
+      <c r="BC53">
+        <v>0</v>
+      </c>
+      <c r="BD53">
+        <v>0</v>
+      </c>
+      <c r="BE53">
+        <v>0</v>
+      </c>
+      <c r="BF53">
+        <v>6</v>
+      </c>
+      <c r="BG53">
+        <v>4</v>
+      </c>
+      <c r="BH53">
+        <v>4</v>
+      </c>
+      <c r="BI53">
+        <v>8</v>
+      </c>
+      <c r="BJ53">
+        <v>10</v>
+      </c>
+      <c r="BK53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:63">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>4932976</v>
+      </c>
+      <c r="C54" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45011.85416666666</v>
+      </c>
+      <c r="F54">
+        <v>9</v>
+      </c>
+      <c r="G54" t="s">
+        <v>73</v>
+      </c>
+      <c r="H54" t="s">
+        <v>66</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54" t="s">
+        <v>115</v>
+      </c>
+      <c r="P54" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q54">
+        <v>3</v>
+      </c>
+      <c r="R54">
+        <v>3</v>
+      </c>
+      <c r="S54">
+        <v>6</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <v>2.75</v>
+      </c>
+      <c r="AD54">
+        <v>2.95</v>
+      </c>
+      <c r="AE54">
+        <v>2.4</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AJ54">
+        <v>2</v>
+      </c>
+      <c r="AK54">
+        <v>1.7</v>
+      </c>
+      <c r="AL54">
+        <v>0</v>
+      </c>
+      <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>0</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>0</v>
+      </c>
+      <c r="AQ54">
+        <v>0</v>
+      </c>
+      <c r="AR54">
+        <v>1.33</v>
+      </c>
+      <c r="AS54">
+        <v>0.75</v>
+      </c>
+      <c r="AT54">
+        <v>1</v>
+      </c>
+      <c r="AU54">
+        <v>1.51</v>
+      </c>
+      <c r="AV54">
+        <v>1.2</v>
+      </c>
+      <c r="AW54">
+        <v>2.71</v>
+      </c>
+      <c r="AX54">
+        <v>0</v>
+      </c>
+      <c r="AY54">
+        <v>0</v>
+      </c>
+      <c r="AZ54">
+        <v>0</v>
+      </c>
+      <c r="BA54">
+        <v>0</v>
+      </c>
+      <c r="BB54">
+        <v>0</v>
+      </c>
+      <c r="BC54">
+        <v>0</v>
+      </c>
+      <c r="BD54">
+        <v>0</v>
+      </c>
+      <c r="BE54">
+        <v>0</v>
+      </c>
+      <c r="BF54">
+        <v>6</v>
+      </c>
+      <c r="BG54">
+        <v>3</v>
+      </c>
+      <c r="BH54">
+        <v>4</v>
+      </c>
+      <c r="BI54">
+        <v>4</v>
+      </c>
+      <c r="BJ54">
+        <v>10</v>
+      </c>
+      <c r="BK54">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK54"/>
+  <dimension ref="A1:BK61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AT4" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.4</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT7" t="n">
         <v>1</v>
@@ -2324,7 +2324,7 @@
         <v>2</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU10" t="n">
         <v>1.03</v>
@@ -2933,7 +2933,7 @@
         <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.25</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -3539,10 +3539,10 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT15" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU15" t="n">
         <v>0.85</v>
@@ -3745,7 +3745,7 @@
         <v>1.4</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU16" t="n">
         <v>1.26</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AT17" t="n">
         <v>1</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT18" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>0.75</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU19" t="n">
         <v>1.16</v>
@@ -4554,10 +4554,10 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU20" t="n">
         <v>0.8</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT21" t="n">
         <v>1.25</v>
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU23" t="n">
         <v>1.25</v>
@@ -5369,7 +5369,7 @@
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU24" t="n">
         <v>1.41</v>
@@ -5572,7 +5572,7 @@
         <v>1.25</v>
       </c>
       <c r="AT25" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU25" t="n">
         <v>1.49</v>
@@ -5775,7 +5775,7 @@
         <v>1.4</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU26" t="n">
         <v>1.32</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="AT28" t="n">
         <v>0</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT29" t="n">
         <v>1</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT30" t="n">
         <v>1.25</v>
@@ -6790,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU31" t="n">
         <v>1.34</v>
@@ -6990,10 +6990,10 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AT32" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU32" t="n">
         <v>0.79</v>
@@ -7196,7 +7196,7 @@
         <v>0.25</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU33" t="n">
         <v>0.92</v>
@@ -7396,10 +7396,10 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU34" t="n">
         <v>1.92</v>
@@ -7602,7 +7602,7 @@
         <v>2</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU35" t="n">
         <v>1.35</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT36" t="n">
         <v>2.25</v>
@@ -8208,7 +8208,7 @@
         <v>2</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="AT38" t="n">
         <v>1.25</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT39" t="n">
         <v>1.25</v>
@@ -8617,7 +8617,7 @@
         <v>0.75</v>
       </c>
       <c r="AT40" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU40" t="n">
         <v>1.31</v>
@@ -9426,10 +9426,10 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU44" t="n">
         <v>0.84</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT46" t="n">
         <v>2.25</v>
@@ -10035,10 +10035,10 @@
         <v>1.75</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU47" t="n">
         <v>1.08</v>
@@ -10238,10 +10238,10 @@
         <v>2.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU48" t="n">
         <v>1.06</v>
@@ -10444,7 +10444,7 @@
         <v>1</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU49" t="n">
         <v>1.44</v>
@@ -11053,7 +11053,7 @@
         <v>1.4</v>
       </c>
       <c r="AT52" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU52" t="n">
         <v>1.35</v>
@@ -11511,6 +11511,1427 @@
       </c>
       <c r="BK54" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4932979</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45015.83333333334</v>
+      </c>
+      <c r="F55" t="n">
+        <v>9</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>11</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>11</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>4932985</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45016.79166666666</v>
+      </c>
+      <c r="F56" t="n">
+        <v>10</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Nacional Asunción</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>11</v>
+      </c>
+      <c r="S56" t="n">
+        <v>16</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>4932982</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45016.89583333334</v>
+      </c>
+      <c r="F57" t="n">
+        <v>10</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Guaraní</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2</v>
+      </c>
+      <c r="S57" t="n">
+        <v>6</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>4932984</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45017.75</v>
+      </c>
+      <c r="F58" t="n">
+        <v>10</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueño</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>2</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2</v>
+      </c>
+      <c r="K58" t="n">
+        <v>4</v>
+      </c>
+      <c r="L58" t="n">
+        <v>2</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="n">
+        <v>4</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>['13', '39']</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>['12', '44']</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>6</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>10</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>4932983</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45017.85416666666</v>
+      </c>
+      <c r="F59" t="n">
+        <v>10</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Guaireña</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="n">
+        <v>4</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>['50', '55', '82']</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>6</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>4932980</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45018.77083333334</v>
+      </c>
+      <c r="F60" t="n">
+        <v>10</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>5</v>
+      </c>
+      <c r="L60" t="n">
+        <v>5</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>['2', '13', '20', '45+2', '45+11']</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>6</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>10</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>4932981</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45018.875</v>
+      </c>
+      <c r="F61" t="n">
+        <v>10</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>6</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>10</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK61"/>
+  <dimension ref="A1:BK65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT6" t="n">
         <v>2</v>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT11" t="n">
         <v>2.25</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT12" t="n">
         <v>0.75</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT16" t="n">
         <v>1.83</v>
@@ -3948,7 +3948,7 @@
         <v>0.33</v>
       </c>
       <c r="AT17" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU17" t="n">
         <v>0.9</v>
@@ -4351,7 +4351,7 @@
         <v>0.5</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT19" t="n">
         <v>1.83</v>
@@ -4760,7 +4760,7 @@
         <v>1.33</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU21" t="n">
         <v>1.16</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT22" t="n">
         <v>2.25</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT24" t="n">
         <v>2</v>
@@ -5772,7 +5772,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT26" t="n">
         <v>1.17</v>
@@ -6384,7 +6384,7 @@
         <v>0.5</v>
       </c>
       <c r="AT29" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU29" t="n">
         <v>1.02</v>
@@ -6587,7 +6587,7 @@
         <v>1.83</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU30" t="n">
         <v>1.8</v>
@@ -7193,7 +7193,7 @@
         <v>1.33</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT33" t="n">
         <v>1.83</v>
@@ -7599,7 +7599,7 @@
         <v>1.33</v>
       </c>
       <c r="AS35" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT35" t="n">
         <v>1.17</v>
@@ -8005,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU37" t="n">
         <v>1.18</v>
@@ -8211,7 +8211,7 @@
         <v>2.67</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU38" t="n">
         <v>1.61</v>
@@ -8414,7 +8414,7 @@
         <v>0.5</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU39" t="n">
         <v>1.14</v>
@@ -8614,7 +8614,7 @@
         <v>2.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT40" t="n">
         <v>1.83</v>
@@ -8820,7 +8820,7 @@
         <v>1.25</v>
       </c>
       <c r="AT41" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU41" t="n">
         <v>1.4</v>
@@ -9020,7 +9020,7 @@
         <v>0.33</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT42" t="n">
         <v>1</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT45" t="n">
         <v>1</v>
@@ -10647,7 +10647,7 @@
         <v>2</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU50" t="n">
         <v>1.54</v>
@@ -10850,7 +10850,7 @@
         <v>1.25</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU51" t="n">
         <v>1.46</v>
@@ -11050,7 +11050,7 @@
         <v>2.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT52" t="n">
         <v>1.83</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT53" t="n">
         <v>0</v>
@@ -11456,10 +11456,10 @@
         <v>1.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT54" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU54" t="n">
         <v>1.51</v>
@@ -12932,6 +12932,818 @@
       </c>
       <c r="BK61" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>4932987</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45024.75</v>
+      </c>
+      <c r="F62" t="n">
+        <v>11</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Nacional Asunción</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>8</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>13</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>4932988</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45024.85416666666</v>
+      </c>
+      <c r="F63" t="n">
+        <v>11</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueño</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Guaireña</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>8</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>8</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>4932989</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45025.75</v>
+      </c>
+      <c r="F64" t="n">
+        <v>11</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>['26', '80', '90+8']</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>10</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>4932986</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45025.85416666666</v>
+      </c>
+      <c r="F65" t="n">
+        <v>11</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>6</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1</v>
+      </c>
+      <c r="S65" t="n">
+        <v>7</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK65"/>
+  <dimension ref="A1:BK67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT9" t="n">
         <v>2</v>
@@ -2730,7 +2730,7 @@
         <v>0.6</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.8</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT13" t="n">
         <v>1.17</v>
@@ -4963,7 +4963,7 @@
         <v>0.2</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU23" t="n">
         <v>1.25</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT25" t="n">
         <v>1.83</v>
@@ -5975,7 +5975,7 @@
         <v>0.5</v>
       </c>
       <c r="AS27" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT27" t="n">
         <v>1</v>
@@ -6993,7 +6993,7 @@
         <v>0.33</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU32" t="n">
         <v>0.79</v>
@@ -7805,7 +7805,7 @@
         <v>1.33</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU36" t="n">
         <v>1.14</v>
@@ -8817,7 +8817,7 @@
         <v>2</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT41" t="n">
         <v>1.4</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT43" t="n">
         <v>0</v>
@@ -9835,7 +9835,7 @@
         <v>1.83</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU46" t="n">
         <v>1.81</v>
@@ -10644,7 +10644,7 @@
         <v>1.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT50" t="n">
         <v>1.2</v>
@@ -10847,7 +10847,7 @@
         <v>1.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT51" t="n">
         <v>1.6</v>
@@ -11662,7 +11662,7 @@
         <v>2.67</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU55" t="n">
         <v>1.81</v>
@@ -13605,13 +13605,13 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S65" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="T65" t="n">
         <v>0</v>
@@ -13728,22 +13728,428 @@
         <v>0</v>
       </c>
       <c r="BF65" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI65" t="n">
         <v>5</v>
       </c>
-      <c r="BG65" t="n">
+      <c r="BJ65" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>4932991</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45026.79166666666</v>
+      </c>
+      <c r="F66" t="n">
+        <v>11</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
         <v>3</v>
       </c>
-      <c r="BH65" t="n">
+      <c r="L66" t="n">
+        <v>2</v>
+      </c>
+      <c r="M66" t="n">
         <v>5</v>
       </c>
-      <c r="BI65" t="n">
+      <c r="N66" t="n">
+        <v>7</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>['9', '22']</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>['12', '48', '58', '71', '80']</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>6</v>
+      </c>
+      <c r="S66" t="n">
+        <v>7</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>4932990</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45026.89583333334</v>
+      </c>
+      <c r="F67" t="n">
+        <v>11</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Guaraní</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="n">
         <v>3</v>
       </c>
-      <c r="BJ65" t="n">
+      <c r="L67" t="n">
+        <v>3</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="n">
+        <v>4</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>['8', '29', '90+8']</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
         <v>10</v>
       </c>
-      <c r="BK65" t="n">
+      <c r="S67" t="n">
+        <v>13</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ67" t="n">
         <v>6</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK67"/>
+  <dimension ref="A1:BK68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AT22" t="n">
         <v>2.4</v>
@@ -6587,7 +6587,7 @@
         <v>1.83</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU30" t="n">
         <v>1.8</v>
@@ -7193,7 +7193,7 @@
         <v>1.33</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AT33" t="n">
         <v>1.83</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AT37" t="n">
         <v>1.6</v>
@@ -8211,7 +8211,7 @@
         <v>2.67</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU38" t="n">
         <v>1.61</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AT45" t="n">
         <v>1</v>
@@ -10647,7 +10647,7 @@
         <v>2.2</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU50" t="n">
         <v>1.54</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AT62" t="n">
         <v>1.4</v>
@@ -13286,7 +13286,7 @@
         <v>1.8</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU63" t="n">
         <v>1.27</v>
@@ -14150,6 +14150,209 @@
       </c>
       <c r="BK67" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>4932996</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45027.85416666666</v>
+      </c>
+      <c r="F68" t="n">
+        <v>12</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Nacional Asunción</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Guaireña</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>2</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="n">
+        <v>4</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>['13', '66']</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>['45+1', '60']</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>7</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK68"/>
+  <dimension ref="A1:BK72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT8" t="n">
         <v>1.17</v>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT9" t="n">
         <v>2</v>
@@ -2527,7 +2527,7 @@
         <v>1.33</v>
       </c>
       <c r="AT10" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU10" t="n">
         <v>1.03</v>
@@ -2730,7 +2730,7 @@
         <v>0.6</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT12" t="n">
         <v>0.6</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT13" t="n">
         <v>1.17</v>
@@ -3948,7 +3948,7 @@
         <v>0.33</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU17" t="n">
         <v>0.9</v>
@@ -4557,7 +4557,7 @@
         <v>0.33</v>
       </c>
       <c r="AT20" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU20" t="n">
         <v>0.8</v>
@@ -4760,7 +4760,7 @@
         <v>1.33</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU21" t="n">
         <v>1.16</v>
@@ -4963,7 +4963,7 @@
         <v>0.33</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT23" t="n">
         <v>0.6</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT24" t="n">
         <v>2</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT25" t="n">
         <v>1.83</v>
@@ -5975,7 +5975,7 @@
         <v>0.5</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT27" t="n">
         <v>1</v>
@@ -6384,7 +6384,7 @@
         <v>0.5</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU29" t="n">
         <v>1.02</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT31" t="n">
         <v>2</v>
@@ -7399,7 +7399,7 @@
         <v>1.83</v>
       </c>
       <c r="AT34" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU34" t="n">
         <v>1.92</v>
@@ -7599,7 +7599,7 @@
         <v>1.33</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT35" t="n">
         <v>1.17</v>
@@ -7805,7 +7805,7 @@
         <v>1.33</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AU36" t="n">
         <v>1.14</v>
@@ -8008,7 +8008,7 @@
         <v>0.33</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU37" t="n">
         <v>1.18</v>
@@ -8414,7 +8414,7 @@
         <v>0.5</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU39" t="n">
         <v>1.14</v>
@@ -8817,10 +8817,10 @@
         <v>2</v>
       </c>
       <c r="AS41" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU41" t="n">
         <v>1.4</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT43" t="n">
         <v>0</v>
@@ -9835,7 +9835,7 @@
         <v>1.83</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AU46" t="n">
         <v>1.81</v>
@@ -10241,7 +10241,7 @@
         <v>0.5</v>
       </c>
       <c r="AT48" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU48" t="n">
         <v>1.06</v>
@@ -10441,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT49" t="n">
         <v>1.17</v>
@@ -10644,7 +10644,7 @@
         <v>1.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT50" t="n">
         <v>1.17</v>
@@ -10847,10 +10847,10 @@
         <v>1.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU51" t="n">
         <v>1.46</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT53" t="n">
         <v>0</v>
@@ -11459,7 +11459,7 @@
         <v>0.6</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU54" t="n">
         <v>1.51</v>
@@ -11862,7 +11862,7 @@
         <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT56" t="n">
         <v>1.83</v>
@@ -12677,7 +12677,7 @@
         <v>2.67</v>
       </c>
       <c r="AT60" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU60" t="n">
         <v>1.98</v>
@@ -13083,7 +13083,7 @@
         <v>0.33</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU62" t="n">
         <v>1.09</v>
@@ -13283,7 +13283,7 @@
         <v>1.25</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT63" t="n">
         <v>1.17</v>
@@ -13489,7 +13489,7 @@
         <v>0.6</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU64" t="n">
         <v>1.5</v>
@@ -13892,10 +13892,10 @@
         <v>2.25</v>
       </c>
       <c r="AS66" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AU66" t="n">
         <v>1.37</v>
@@ -14095,7 +14095,7 @@
         <v>0.75</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT67" t="n">
         <v>0.6</v>
@@ -14353,6 +14353,818 @@
       </c>
       <c r="BK68" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>4932995</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45028.79166666666</v>
+      </c>
+      <c r="F69" t="n">
+        <v>12</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueño</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>6</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>11</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>4932997</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45028.89583333334</v>
+      </c>
+      <c r="F70" t="n">
+        <v>12</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>9</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>4932992</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45029.79166666666</v>
+      </c>
+      <c r="F71" t="n">
+        <v>12</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2</v>
+      </c>
+      <c r="K71" t="n">
+        <v>2</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="n">
+        <v>3</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>['25', '42']</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>7</v>
+      </c>
+      <c r="R71" t="n">
+        <v>7</v>
+      </c>
+      <c r="S71" t="n">
+        <v>14</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>4932993</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45029.89583333334</v>
+      </c>
+      <c r="F72" t="n">
+        <v>12</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Guaraní</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK72"/>
+  <dimension ref="A1:BK77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.67</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1.33</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT6" t="n">
         <v>2</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT7" t="n">
         <v>1</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AT11" t="n">
         <v>2.17</v>
@@ -2933,7 +2933,7 @@
         <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT13" t="n">
         <v>1.17</v>
@@ -3542,7 +3542,7 @@
         <v>0.5</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU15" t="n">
         <v>0.85</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU16" t="n">
         <v>1.26</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU17" t="n">
         <v>0.9</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT18" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AU18" t="n">
         <v>1.41</v>
@@ -4351,10 +4351,10 @@
         <v>0.5</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU19" t="n">
         <v>1.16</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AT20" t="n">
         <v>2.17</v>
@@ -5166,7 +5166,7 @@
         <v>0.83</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU23" t="n">
         <v>1.25</v>
@@ -5569,10 +5569,10 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU25" t="n">
         <v>1.49</v>
@@ -5772,7 +5772,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT26" t="n">
         <v>1.17</v>
@@ -6181,7 +6181,7 @@
         <v>2.67</v>
       </c>
       <c r="AT28" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AU28" t="n">
         <v>1.25</v>
@@ -6384,7 +6384,7 @@
         <v>0.5</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU29" t="n">
         <v>1.02</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT30" t="n">
         <v>1.17</v>
@@ -6990,10 +6990,10 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU32" t="n">
         <v>0.79</v>
@@ -7196,7 +7196,7 @@
         <v>0.33</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU33" t="n">
         <v>0.92</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT34" t="n">
         <v>2.17</v>
@@ -8614,10 +8614,10 @@
         <v>2.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU40" t="n">
         <v>1.31</v>
@@ -8817,10 +8817,10 @@
         <v>2</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU41" t="n">
         <v>1.4</v>
@@ -9020,7 +9020,7 @@
         <v>0.33</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT42" t="n">
         <v>1</v>
@@ -9226,7 +9226,7 @@
         <v>2</v>
       </c>
       <c r="AT43" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AU43" t="n">
         <v>1.73</v>
@@ -9426,7 +9426,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AT44" t="n">
         <v>2</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT46" t="n">
         <v>2.17</v>
@@ -10038,7 +10038,7 @@
         <v>1.33</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU47" t="n">
         <v>1.08</v>
@@ -10847,7 +10847,7 @@
         <v>1.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT51" t="n">
         <v>1.33</v>
@@ -11050,10 +11050,10 @@
         <v>2.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU52" t="n">
         <v>1.35</v>
@@ -11256,7 +11256,7 @@
         <v>2</v>
       </c>
       <c r="AT53" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AU53" t="n">
         <v>1.25</v>
@@ -11456,10 +11456,10 @@
         <v>1.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU54" t="n">
         <v>1.51</v>
@@ -11662,7 +11662,7 @@
         <v>2.67</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU55" t="n">
         <v>1.81</v>
@@ -11865,7 +11865,7 @@
         <v>0.83</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU56" t="n">
         <v>1.36</v>
@@ -12065,10 +12065,10 @@
         <v>1.6</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU57" t="n">
         <v>1.68</v>
@@ -12471,7 +12471,7 @@
         <v>0.8</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AT59" t="n">
         <v>1.17</v>
@@ -13083,7 +13083,7 @@
         <v>0.33</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU62" t="n">
         <v>1.09</v>
@@ -13486,7 +13486,7 @@
         <v>1.25</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AT64" t="n">
         <v>1.33</v>
@@ -13689,10 +13689,10 @@
         <v>0</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT65" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AU65" t="n">
         <v>1.36</v>
@@ -13892,7 +13892,7 @@
         <v>2.25</v>
       </c>
       <c r="AS66" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT66" t="n">
         <v>2.17</v>
@@ -14098,7 +14098,7 @@
         <v>2</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU67" t="n">
         <v>1.59</v>
@@ -14707,7 +14707,7 @@
         <v>0.83</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU70" t="n">
         <v>1.31</v>
@@ -14907,19 +14907,19 @@
         <v>2</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT71" t="n">
         <v>2.17</v>
       </c>
       <c r="AU71" t="n">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AV71" t="n">
         <v>1.16</v>
       </c>
       <c r="AW71" t="n">
-        <v>2.53</v>
+        <v>2.43</v>
       </c>
       <c r="AX71" t="n">
         <v>0</v>
@@ -15026,13 +15026,13 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S72" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T72" t="n">
         <v>0</v>
@@ -15116,13 +15116,13 @@
         <v>2.17</v>
       </c>
       <c r="AU72" t="n">
-        <v>1.59</v>
+        <v>1.46</v>
       </c>
       <c r="AV72" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="AW72" t="n">
-        <v>3.14</v>
+        <v>3.07</v>
       </c>
       <c r="AX72" t="n">
         <v>0</v>
@@ -15149,22 +15149,1037 @@
         <v>0</v>
       </c>
       <c r="BF72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG72" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>4932994</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45030.83333333334</v>
+      </c>
+      <c r="F73" t="n">
+        <v>12</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>2</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="n">
+        <v>2</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>6</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>11</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>4932999</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45031.75</v>
+      </c>
+      <c r="F74" t="n">
+        <v>13</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Guaireña</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>8</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2</v>
+      </c>
+      <c r="S74" t="n">
+        <v>10</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>4933000</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45031.85416666666</v>
+      </c>
+      <c r="F75" t="n">
+        <v>13</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Nacional Asunción</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="n">
+        <v>1</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>8</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>13</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG75" t="n">
         <v>3</v>
       </c>
-      <c r="BH72" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI72" t="n">
+      <c r="BH75" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK75" t="n">
         <v>8</v>
       </c>
-      <c r="BJ72" t="n">
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>4932998</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45032.79166666666</v>
+      </c>
+      <c r="F76" t="n">
+        <v>13</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>2</v>
+      </c>
+      <c r="L76" t="n">
         <v>3</v>
       </c>
-      <c r="BK72" t="n">
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="n">
+        <v>5</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['19', '45+1', '55']</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>['67', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>10</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK76" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>4933003</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45032.89583333334</v>
+      </c>
+      <c r="F77" t="n">
+        <v>13</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Guaraní</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="n">
+        <v>0</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK77"/>
+  <dimension ref="A1:BK79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT2" t="n">
         <v>1.71</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.57</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>0.86</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AT15" t="n">
         <v>2</v>
@@ -5775,7 +5775,7 @@
         <v>1.86</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU26" t="n">
         <v>1.32</v>
@@ -5978,7 +5978,7 @@
         <v>2</v>
       </c>
       <c r="AT27" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU27" t="n">
         <v>1.22</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT28" t="n">
         <v>0.43</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AT29" t="n">
         <v>1.43</v>
@@ -7602,7 +7602,7 @@
         <v>2</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU35" t="n">
         <v>1.35</v>
@@ -8208,7 +8208,7 @@
         <v>2</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT38" t="n">
         <v>1.17</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AT39" t="n">
         <v>1.33</v>
@@ -9023,7 +9023,7 @@
         <v>1.86</v>
       </c>
       <c r="AT42" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU42" t="n">
         <v>1.51</v>
@@ -9632,7 +9632,7 @@
         <v>0.33</v>
       </c>
       <c r="AT45" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU45" t="n">
         <v>1.06</v>
@@ -10238,7 +10238,7 @@
         <v>2.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AT48" t="n">
         <v>2.17</v>
@@ -10444,7 +10444,7 @@
         <v>0.83</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU49" t="n">
         <v>1.44</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT55" t="n">
         <v>0.67</v>
@@ -12271,7 +12271,7 @@
         <v>1.33</v>
       </c>
       <c r="AT58" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU58" t="n">
         <v>1.24</v>
@@ -12474,7 +12474,7 @@
         <v>0.29</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU59" t="n">
         <v>1</v>
@@ -12674,7 +12674,7 @@
         <v>2.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT60" t="n">
         <v>2.17</v>
@@ -12877,7 +12877,7 @@
         <v>1.8</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AT61" t="n">
         <v>2</v>
@@ -16041,13 +16041,13 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S77" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T77" t="n">
         <v>0</v>
@@ -16164,22 +16164,428 @@
         <v>0</v>
       </c>
       <c r="BF77" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI77" t="n">
         <v>5</v>
       </c>
-      <c r="BG77" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH77" t="n">
+      <c r="BJ77" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>4933002</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45033.79166666666</v>
+      </c>
+      <c r="F78" t="n">
+        <v>13</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>3</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>3</v>
+      </c>
+      <c r="L78" t="n">
+        <v>4</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>4</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>['3', '10', '43', '60']</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>7</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AD78" t="n">
         <v>5</v>
       </c>
-      <c r="BI77" t="n">
+      <c r="AE78" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF78" t="n">
         <v>4</v>
       </c>
-      <c r="BJ77" t="n">
+      <c r="BG78" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ78" t="n">
         <v>10</v>
       </c>
-      <c r="BK77" t="n">
+      <c r="BK78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>4933001</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45033.89583333334</v>
+      </c>
+      <c r="F79" t="n">
+        <v>13</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueño</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>2</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="n">
+        <v>3</v>
+      </c>
+      <c r="L79" t="n">
+        <v>3</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="n">
+        <v>5</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>['5', '30', '90+4']</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>['44', '90+8']</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>8</v>
+      </c>
+      <c r="S79" t="n">
+        <v>11</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF79" t="n">
         <v>6</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
